--- a/example_output/csv_data/ExtremeValues_T_return_Wind.xlsx
+++ b/example_output/csv_data/ExtremeValues_T_return_Wind.xlsx
@@ -423,13 +423,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>30.74734752241122</v>
+        <v>34.5</v>
       </c>
       <c r="D2">
-        <v>33.20230001169647</v>
+        <v>35.8</v>
       </c>
       <c r="E2">
-        <v>29.12826267294349</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +440,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>31.11866260176772</v>
+        <v>36.2</v>
       </c>
       <c r="D3">
-        <v>34.30720936706042</v>
+        <v>38</v>
       </c>
       <c r="E3">
-        <v>29.34712946856349</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +457,13 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>31.90582862022204</v>
+        <v>39.9</v>
       </c>
       <c r="D4">
-        <v>36.83305669161185</v>
+        <v>42.8</v>
       </c>
       <c r="E4">
-        <v>29.61654163862464</v>
+        <v>37.8</v>
       </c>
     </row>
   </sheetData>
@@ -501,13 +501,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>30.17974106203386</v>
+        <v>31.7</v>
       </c>
       <c r="D2">
-        <v>33.94799364742511</v>
+        <v>33.1</v>
       </c>
       <c r="E2">
-        <v>27.83687276598602</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -518,13 +518,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>30.69097914815078</v>
+        <v>33.7</v>
       </c>
       <c r="D3">
-        <v>35.54207321078429</v>
+        <v>35.7</v>
       </c>
       <c r="E3">
-        <v>28.01700547460876</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -535,13 +535,13 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>31.90576171549447</v>
+        <v>38.1</v>
       </c>
       <c r="D4">
-        <v>39.33320074350021</v>
+        <v>41.3</v>
       </c>
       <c r="E4">
-        <v>28.3899966768712</v>
+        <v>35.6</v>
       </c>
     </row>
   </sheetData>
@@ -579,13 +579,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>27.92086354394597</v>
+        <v>32.1</v>
       </c>
       <c r="D2">
-        <v>28.36642113627549</v>
+        <v>33.7</v>
       </c>
       <c r="E2">
-        <v>27.61847615212863</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -596,13 +596,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>27.98856730859496</v>
+        <v>34.4</v>
       </c>
       <c r="D3">
-        <v>28.55958703109424</v>
+        <v>36.5</v>
       </c>
       <c r="E3">
-        <v>27.6442856698677</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -613,13 +613,13 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>28.13941087086501</v>
+        <v>39.5</v>
       </c>
       <c r="D4">
-        <v>28.99478702176116</v>
+        <v>42.9</v>
       </c>
       <c r="E4">
-        <v>27.69704593283667</v>
+        <v>36.7</v>
       </c>
     </row>
   </sheetData>
@@ -657,13 +657,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>27.51546727435511</v>
+        <v>29.9</v>
       </c>
       <c r="D2">
-        <v>30.84643423691449</v>
+        <v>31.3</v>
       </c>
       <c r="E2">
-        <v>25.59704981759043</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -674,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>28.01896174469333</v>
+        <v>31.8</v>
       </c>
       <c r="D3">
-        <v>32.14611800950113</v>
+        <v>33.7</v>
       </c>
       <c r="E3">
-        <v>25.79290093156035</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -691,13 +691,13 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>29.12278860194237</v>
+        <v>35.9</v>
       </c>
       <c r="D4">
-        <v>35.21687454456494</v>
+        <v>39.1</v>
       </c>
       <c r="E4">
-        <v>26.08697101078304</v>
+        <v>33.6</v>
       </c>
     </row>
   </sheetData>
@@ -735,13 +735,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>26.35108694017998</v>
+        <v>28.1</v>
       </c>
       <c r="D2">
-        <v>28.07367253600459</v>
+        <v>29.3</v>
       </c>
       <c r="E2">
-        <v>25.3717135081634</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,13 +752,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>26.59769523557781</v>
+        <v>29.6</v>
       </c>
       <c r="D3">
-        <v>28.71039999621259</v>
+        <v>31.1</v>
       </c>
       <c r="E3">
-        <v>25.45173141502447</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,13 +769,13 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>27.10763824488937</v>
+        <v>32.9</v>
       </c>
       <c r="D4">
-        <v>30.3241145588146</v>
+        <v>35.3</v>
       </c>
       <c r="E4">
-        <v>25.63039611021115</v>
+        <v>30.9</v>
       </c>
     </row>
   </sheetData>
@@ -813,13 +813,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>24.81899658710014</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>33.4093993900384</v>
+        <v>24.8</v>
       </c>
       <c r="E2">
-        <v>20.92059788202175</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -830,13 +830,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>25.814774079848</v>
+        <v>25.2</v>
       </c>
       <c r="D3">
-        <v>36.39428570376161</v>
+        <v>26.4</v>
       </c>
       <c r="E3">
-        <v>21.27930169616188</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -847,13 +847,13 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>27.95312418630178</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>43.56750170004651</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>21.71003894507211</v>
+        <v>26.4</v>
       </c>
     </row>
   </sheetData>
@@ -891,13 +891,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>23.17074301544832</v>
+        <v>22.2</v>
       </c>
       <c r="D2">
-        <v>25.33115355826424</v>
+        <v>23.4</v>
       </c>
       <c r="E2">
-        <v>21.83397154652158</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -908,13 +908,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>23.48606472656347</v>
+        <v>23.7</v>
       </c>
       <c r="D3">
-        <v>26.21821166863734</v>
+        <v>25.4</v>
       </c>
       <c r="E3">
-        <v>21.94800880407095</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -925,13 +925,13 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>24.0909730179463</v>
+        <v>27.1</v>
       </c>
       <c r="D4">
-        <v>28.44995499983051</v>
+        <v>29.8</v>
       </c>
       <c r="E4">
-        <v>22.14236612659584</v>
+        <v>25.2</v>
       </c>
     </row>
   </sheetData>
@@ -969,13 +969,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>21.35586473265697</v>
+        <v>22.6</v>
       </c>
       <c r="D2">
-        <v>21.98295667021723</v>
+        <v>23.7</v>
       </c>
       <c r="E2">
-        <v>20.99518702907709</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -986,13 +986,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>21.44656971967944</v>
+        <v>24.2</v>
       </c>
       <c r="D3">
-        <v>22.23526170389541</v>
+        <v>25.6</v>
       </c>
       <c r="E3">
-        <v>21.03308659315184</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1003,13 +1003,13 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>21.63169191046237</v>
+        <v>27.5</v>
       </c>
       <c r="D4">
-        <v>22.80876334804584</v>
+        <v>29.8</v>
       </c>
       <c r="E4">
-        <v>21.08796742465191</v>
+        <v>25.7</v>
       </c>
     </row>
   </sheetData>
@@ -1047,13 +1047,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>21.38442766662751</v>
+        <v>23.1</v>
       </c>
       <c r="D2">
-        <v>22.14454566904032</v>
+        <v>24.2</v>
       </c>
       <c r="E2">
-        <v>20.92038545592614</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1064,13 +1064,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>21.49963727390557</v>
+        <v>24.6</v>
       </c>
       <c r="D3">
-        <v>22.46794436918152</v>
+        <v>26.1</v>
       </c>
       <c r="E3">
-        <v>20.95763674097276</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1081,13 +1081,13 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>21.71867871587396</v>
+        <v>27.9</v>
       </c>
       <c r="D4">
-        <v>23.1759852931679</v>
+        <v>30.3</v>
       </c>
       <c r="E4">
-        <v>21.03085564581482</v>
+        <v>26.1</v>
       </c>
     </row>
   </sheetData>
@@ -1125,13 +1125,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>24.22064120851567</v>
+        <v>23.5</v>
       </c>
       <c r="D2">
-        <v>26.14882910559187</v>
+        <v>24.4</v>
       </c>
       <c r="E2">
-        <v>23.0550097549289</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1142,13 +1142,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>24.53343904449136</v>
+        <v>24.8</v>
       </c>
       <c r="D3">
-        <v>26.9525986529153</v>
+        <v>26.1</v>
       </c>
       <c r="E3">
-        <v>23.16339732700177</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1159,13 +1159,13 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>25.10551342457152</v>
+        <v>27.8</v>
       </c>
       <c r="D4">
-        <v>28.89557087342441</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>23.31833867588272</v>
+        <v>26.1</v>
       </c>
     </row>
   </sheetData>
@@ -1203,13 +1203,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>22.51132024819829</v>
+        <v>24.5</v>
       </c>
       <c r="D2">
-        <v>26.2442543737028</v>
+        <v>25.7</v>
       </c>
       <c r="E2">
-        <v>20.21234746919153</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1220,13 +1220,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>23.11613672166421</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>27.88294056944633</v>
+        <v>27.6</v>
       </c>
       <c r="E3">
-        <v>20.47064587953003</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1237,13 +1237,13 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>24.33532064354113</v>
+        <v>29.4</v>
       </c>
       <c r="D4">
-        <v>31.72028967164347</v>
+        <v>31.9</v>
       </c>
       <c r="E4">
-        <v>20.94473702303823</v>
+        <v>27.5</v>
       </c>
     </row>
   </sheetData>
@@ -1281,13 +1281,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>24.21500264213415</v>
+        <v>29.2</v>
       </c>
       <c r="D2">
-        <v>26.73812315199841</v>
+        <v>30.9</v>
       </c>
       <c r="E2">
-        <v>22.69572329636157</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1298,13 +1298,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>24.51469690168697</v>
+        <v>31.3</v>
       </c>
       <c r="D3">
-        <v>27.71510216990849</v>
+        <v>33.6</v>
       </c>
       <c r="E3">
-        <v>22.80880285572741</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1315,13 +1315,13 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>25.1918302282941</v>
+        <v>35.9</v>
       </c>
       <c r="D4">
-        <v>30.18907132926978</v>
+        <v>39.7</v>
       </c>
       <c r="E4">
-        <v>23.01507975286615</v>
+        <v>33.4</v>
       </c>
     </row>
   </sheetData>
@@ -1359,13 +1359,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>27.40051372019189</v>
+        <v>30.8</v>
       </c>
       <c r="D2">
-        <v>29.51093458114089</v>
+        <v>32.1</v>
       </c>
       <c r="E2">
-        <v>26.01240290875674</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1376,13 +1376,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>27.70376170148394</v>
+        <v>32.7</v>
       </c>
       <c r="D3">
-        <v>30.44261683964162</v>
+        <v>34.6</v>
       </c>
       <c r="E3">
-        <v>26.17200843371289</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1393,13 +1393,13 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>28.28358030204186</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>32.60448856061629</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>26.4047995584598</v>
+        <v>34.6</v>
       </c>
     </row>
   </sheetData>

--- a/example_output/csv_data/ExtremeValues_T_return_Wind.xlsx
+++ b/example_output/csv_data/ExtremeValues_T_return_Wind.xlsx
@@ -443,7 +443,7 @@
         <v>36.2</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="E3">
         <v>34.9</v>
@@ -457,10 +457,10 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="D4">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="E4">
         <v>37.8</v>
@@ -521,10 +521,10 @@
         <v>33.7</v>
       </c>
       <c r="D3">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="E3">
-        <v>32.1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>41.3</v>
       </c>
       <c r="E4">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
     </row>
   </sheetData>
@@ -585,7 +585,7 @@
         <v>33.7</v>
       </c>
       <c r="E2">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -599,7 +599,7 @@
         <v>34.4</v>
       </c>
       <c r="D3">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E3">
         <v>32.6</v>
@@ -613,13 +613,13 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="D4">
         <v>42.9</v>
       </c>
       <c r="E4">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +680,7 @@
         <v>33.7</v>
       </c>
       <c r="E3">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -691,13 +691,13 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="E4">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
     </row>
   </sheetData>
@@ -738,10 +738,10 @@
         <v>28.1</v>
       </c>
       <c r="D2">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E2">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -755,10 +755,10 @@
         <v>29.6</v>
       </c>
       <c r="D3">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="E3">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="D4">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="E4">
         <v>30.9</v>
@@ -819,7 +819,7 @@
         <v>24.8</v>
       </c>
       <c r="E2">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -836,7 +836,7 @@
         <v>26.4</v>
       </c>
       <c r="E3">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -853,7 +853,7 @@
         <v>30</v>
       </c>
       <c r="E4">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +897,7 @@
         <v>23.4</v>
       </c>
       <c r="E2">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -911,7 +911,7 @@
         <v>23.7</v>
       </c>
       <c r="D3">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="E3">
         <v>22.5</v>
@@ -928,7 +928,7 @@
         <v>27.1</v>
       </c>
       <c r="D4">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="E4">
         <v>25.2</v>
@@ -972,10 +972,10 @@
         <v>22.6</v>
       </c>
       <c r="D2">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="E2">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -986,13 +986,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="D3">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1006,10 +1006,10 @@
         <v>27.5</v>
       </c>
       <c r="D4">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="E4">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
     </row>
   </sheetData>
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="D2">
         <v>24.2</v>
@@ -1064,10 +1064,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="D3">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>23.4</v>
@@ -1084,7 +1084,7 @@
         <v>27.9</v>
       </c>
       <c r="D4">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="E4">
         <v>26.1</v>
@@ -1128,7 +1128,7 @@
         <v>23.5</v>
       </c>
       <c r="D2">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="E2">
         <v>22.7</v>
@@ -1142,10 +1142,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="D3">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="E3">
         <v>23.8</v>
@@ -1159,13 +1159,13 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="E4">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
     </row>
   </sheetData>
@@ -1206,10 +1206,10 @@
         <v>24.5</v>
       </c>
       <c r="D2">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="E2">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E3">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1237,13 +1237,13 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="D4">
-        <v>31.9</v>
+        <v>31.5</v>
       </c>
       <c r="E4">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
     </row>
   </sheetData>
@@ -1284,10 +1284,10 @@
         <v>29.2</v>
       </c>
       <c r="D2">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1301,10 +1301,10 @@
         <v>31.3</v>
       </c>
       <c r="D3">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="E3">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1318,10 +1318,10 @@
         <v>35.9</v>
       </c>
       <c r="D4">
-        <v>39.7</v>
+        <v>39.4</v>
       </c>
       <c r="E4">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
     </row>
   </sheetData>
@@ -1359,13 +1359,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="D2">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="E2">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1376,13 +1376,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="D3">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="E3">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1393,13 +1393,13 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>39.7</v>
       </c>
       <c r="E4">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
     </row>
   </sheetData>
